--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>558110.9918601468</v>
+        <v>481188.061163205</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>434113.9312046672</v>
+        <v>434113.9312046673</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12116072.32741041</v>
+        <v>12116072.32741042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7882160.476751442</v>
+        <v>7882160.476751441</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>84.14750936819266</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>58.64979434929906</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>76.56695936884228</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>3.749580224518764</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>102.2133755837552</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>37.42681674263682</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>95.51138530184946</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>76.29292774110982</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9364262421938</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.25736106477147</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>91.10378467502353</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.47297446364122</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>168.4657466866956</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.25736106477147</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>40.64421825449598</v>
       </c>
       <c r="G17" t="n">
         <v>413.8442992113257</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>58.25549283948421</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2289778435317</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.7541444292852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>125.1705505018154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.563183876413</v>
@@ -1943,7 +1943,7 @@
         <v>104.6990674929509</v>
       </c>
       <c r="I18" t="n">
-        <v>62.52989468754939</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>51.70872008287461</v>
       </c>
       <c r="S18" t="n">
         <v>157.1888225530135</v>
@@ -1979,7 +1979,7 @@
         <v>197.0194379467206</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8900443647381</v>
+        <v>216.812557077844</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.34076942475789</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.6592074433062</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.38127751273461</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.1503489660829</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>75.06255906639259</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.8442992113257</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>175.7859067381893</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.7115358892058</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>307.0776773638095</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.6990674929509</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>62.52989468754939</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.63123279598053</v>
+        <v>51.70872008287461</v>
       </c>
       <c r="S21" t="n">
         <v>157.1888225530135</v>
       </c>
       <c r="T21" t="n">
-        <v>197.0194379467206</v>
+        <v>125.4120559722769</v>
       </c>
       <c r="U21" t="n">
         <v>225.8900443647381</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.51350533143733</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>147.8779460026287</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6155853432815</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>32.68867443398703</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2833454356968</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>33.4786284883925</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>66.23525597315289</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.5310119231965</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>237.1564357861104</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>243.1992169715565</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>32.22864382900244</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>183.7296727898297</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,31 +2949,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="I31" t="n">
-        <v>56.51774738058919</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9152309627403</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>370.2220295884318</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>141.6178196669933</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>291.6082152899771</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,16 +3322,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>123.2558368419821</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>186.9955665541458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>199.3355115125533</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -3720,7 +3720,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>350.3036627473132</v>
       </c>
       <c r="G41" t="n">
-        <v>72.75222284062301</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>38.39834678541138</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.5889480231532</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>175.7422691492756</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>379.7183486465487</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>128.7835007017908</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.203140025706</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>314.750110744579</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>904.8149389961927</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>904.8149389961927</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>904.8149389961927</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>904.8149389961927</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>696.9634387906599</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>489.203140025706</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>512.7568786610034</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C9" t="n">
-        <v>512.7568786610034</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D9" t="n">
-        <v>512.7568786610034</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>512.7568786610034</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="10">
@@ -4986,10 +4986,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="C11" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>125.3383550191735</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
@@ -5053,10 +5053,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S11" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T11" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="U11" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="V11" t="n">
-        <v>858.9304414063566</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="W11" t="n">
-        <v>579.9844679696339</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="X11" t="n">
-        <v>301.0384945329112</v>
+        <v>683.2303018926189</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.09252109618844</v>
+        <v>404.2843284558962</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K12" t="n">
-        <v>28.39914141318535</v>
+        <v>45.18387750277338</v>
       </c>
       <c r="L12" t="n">
-        <v>274.5546080058863</v>
+        <v>291.3393440954744</v>
       </c>
       <c r="M12" t="n">
-        <v>367.8501726635177</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>838.129241226138</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1027.562491434564</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S12" t="n">
-        <v>855.5584786857422</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T12" t="n">
-        <v>653.6785787138515</v>
+        <v>836.17674519153</v>
       </c>
       <c r="U12" t="n">
-        <v>425.4599663479992</v>
+        <v>607.9581328256777</v>
       </c>
       <c r="V12" t="n">
-        <v>190.3078581162565</v>
+        <v>372.806024593935</v>
       </c>
       <c r="W12" t="n">
-        <v>190.3078581162565</v>
+        <v>118.5686678657333</v>
       </c>
       <c r="X12" t="n">
-        <v>190.3078581162565</v>
+        <v>118.5686678657333</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.3078581162565</v>
+        <v>118.5686678657333</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C14" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D14" t="n">
-        <v>858.9304414063566</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E14" t="n">
-        <v>858.9304414063566</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F14" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G14" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K14" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M14" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5305,25 +5305,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y14" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.62077813016947</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="C15" t="n">
-        <v>27.62077813016947</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="D15" t="n">
-        <v>27.62077813016947</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E15" t="n">
-        <v>27.62077813016947</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F15" t="n">
-        <v>27.62077813016947</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G15" t="n">
-        <v>27.62077813016947</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
-        <v>27.62077813016947</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M15" t="n">
-        <v>405.6478494291521</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="N15" t="n">
-        <v>562.3310704112777</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P15" t="n">
         <v>1025.71200399185</v>
@@ -5384,25 +5384,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>932.6220420606005</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V15" t="n">
-        <v>697.4699338288578</v>
+        <v>706.2400215479172</v>
       </c>
       <c r="W15" t="n">
-        <v>443.2325771006562</v>
+        <v>706.2400215479172</v>
       </c>
       <c r="X15" t="n">
-        <v>235.3810768951234</v>
+        <v>706.2400215479172</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.62077813016947</v>
+        <v>498.4797227829632</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N16" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q16" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2150.387399506947</v>
+        <v>1025.705491092316</v>
       </c>
       <c r="C17" t="n">
-        <v>1781.424882566535</v>
+        <v>1025.705491092316</v>
       </c>
       <c r="D17" t="n">
-        <v>1423.159183959785</v>
+        <v>667.4397924855652</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.37093136154</v>
+        <v>667.4397924855652</v>
       </c>
       <c r="F17" t="n">
         <v>626.3850265719329</v>
@@ -5512,19 +5512,19 @@
         <v>208.3604819140282</v>
       </c>
       <c r="I17" t="n">
-        <v>52.55295983039684</v>
+        <v>52.55295983039683</v>
       </c>
       <c r="J17" t="n">
-        <v>163.2684600773919</v>
+        <v>163.2684600773914</v>
       </c>
       <c r="K17" t="n">
-        <v>449.9470991626238</v>
+        <v>449.9470991626233</v>
       </c>
       <c r="L17" t="n">
-        <v>857.8739283493959</v>
+        <v>857.8739283493953</v>
       </c>
       <c r="M17" t="n">
-        <v>1328.37767037793</v>
+        <v>1328.377670377929</v>
       </c>
       <c r="N17" t="n">
         <v>1791.86265730319</v>
@@ -5533,34 +5533,34 @@
         <v>2184.33074973919</v>
       </c>
       <c r="P17" t="n">
-        <v>2481.618803655552</v>
+        <v>2481.618803655551</v>
       </c>
       <c r="Q17" t="n">
         <v>2627.647991519842</v>
       </c>
       <c r="R17" t="n">
-        <v>2627.647991519842</v>
+        <v>2568.804059358746</v>
       </c>
       <c r="S17" t="n">
-        <v>2627.647991519842</v>
+        <v>2568.804059358746</v>
       </c>
       <c r="T17" t="n">
-        <v>2627.647991519842</v>
+        <v>2349.903518056518</v>
       </c>
       <c r="U17" t="n">
-        <v>2627.647991519842</v>
+        <v>2096.136873770122</v>
       </c>
       <c r="V17" t="n">
-        <v>2627.647991519842</v>
+        <v>1765.073986426552</v>
       </c>
       <c r="W17" t="n">
-        <v>2627.647991519842</v>
+        <v>1412.305331156437</v>
       </c>
       <c r="X17" t="n">
-        <v>2627.647991519842</v>
+        <v>1412.305331156437</v>
       </c>
       <c r="Y17" t="n">
-        <v>2536.987239571069</v>
+        <v>1412.305331156437</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>968.4735068678556</v>
+        <v>925.411655558784</v>
       </c>
       <c r="C18" t="n">
-        <v>794.0204775867286</v>
+        <v>750.958626277657</v>
       </c>
       <c r="D18" t="n">
-        <v>645.0860679254773</v>
+        <v>602.0242166164057</v>
       </c>
       <c r="E18" t="n">
-        <v>485.8486129200218</v>
+        <v>442.7867616109502</v>
       </c>
       <c r="F18" t="n">
-        <v>359.4137134232386</v>
+        <v>296.2522036378352</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4711034470639</v>
+        <v>158.3095936616604</v>
       </c>
       <c r="H18" t="n">
-        <v>115.7144696158003</v>
+        <v>52.55295983039683</v>
       </c>
       <c r="I18" t="n">
-        <v>52.55295983039684</v>
+        <v>52.55295983039683</v>
       </c>
       <c r="J18" t="n">
-        <v>124.8009736173955</v>
+        <v>52.55295983039683</v>
       </c>
       <c r="K18" t="n">
-        <v>374.9051797885136</v>
+        <v>237.6999257557351</v>
       </c>
       <c r="L18" t="n">
-        <v>772.6055460484741</v>
+        <v>635.4002920156956</v>
       </c>
       <c r="M18" t="n">
-        <v>1288.682336799737</v>
+        <v>1151.477082766959</v>
       </c>
       <c r="N18" t="n">
-        <v>1834.125157955225</v>
+        <v>1696.919903922447</v>
       </c>
       <c r="O18" t="n">
-        <v>2266.683100156827</v>
+        <v>2129.477846124048</v>
       </c>
       <c r="P18" t="n">
-        <v>2596.845916078025</v>
+        <v>2459.640662045247</v>
       </c>
       <c r="Q18" t="n">
         <v>2627.647991519842</v>
       </c>
       <c r="R18" t="n">
-        <v>2627.647991519842</v>
+        <v>2575.416961133099</v>
       </c>
       <c r="S18" t="n">
-        <v>2468.871403082454</v>
+        <v>2416.640372695712</v>
       </c>
       <c r="T18" t="n">
-        <v>2269.861869802939</v>
+        <v>2217.630839416196</v>
       </c>
       <c r="U18" t="n">
-        <v>2041.690107818355</v>
+        <v>1998.628256509283</v>
       </c>
       <c r="V18" t="n">
-        <v>1806.537999586612</v>
+        <v>1763.47614827754</v>
       </c>
       <c r="W18" t="n">
-        <v>1552.30064285841</v>
+        <v>1509.238791549339</v>
       </c>
       <c r="X18" t="n">
-        <v>1344.449142652878</v>
+        <v>1301.387291343806</v>
       </c>
       <c r="Y18" t="n">
-        <v>1136.688843887924</v>
+        <v>1093.626992578852</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.6198713889527</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="C19" t="n">
-        <v>263.6198713889527</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="D19" t="n">
-        <v>113.5032319766169</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="E19" t="n">
-        <v>52.55295983039684</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="F19" t="n">
-        <v>52.55295983039684</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="G19" t="n">
-        <v>52.55295983039684</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="H19" t="n">
-        <v>52.55295983039684</v>
+        <v>52.55295983039683</v>
       </c>
       <c r="I19" t="n">
-        <v>52.55295983039684</v>
+        <v>52.55295983039683</v>
       </c>
       <c r="J19" t="n">
-        <v>52.55295983039684</v>
+        <v>52.55295983039683</v>
       </c>
       <c r="K19" t="n">
         <v>105.752846701132</v>
@@ -5694,31 +5694,31 @@
         <v>704.3911912483011</v>
       </c>
       <c r="Q19" t="n">
-        <v>672.6929311344277</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="R19" t="n">
-        <v>672.6929311344277</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="S19" t="n">
-        <v>672.6929311344277</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="T19" t="n">
-        <v>445.2683362191924</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="U19" t="n">
-        <v>445.2683362191924</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="V19" t="n">
-        <v>445.2683362191924</v>
+        <v>449.7067030424142</v>
       </c>
       <c r="W19" t="n">
-        <v>445.2683362191924</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="X19" t="n">
-        <v>445.2683362191924</v>
+        <v>160.2895330054536</v>
       </c>
       <c r="Y19" t="n">
-        <v>445.2683362191924</v>
+        <v>160.2895330054536</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1363.40033790863</v>
+        <v>1353.613242119095</v>
       </c>
       <c r="C20" t="n">
-        <v>1363.40033790863</v>
+        <v>984.6507251786834</v>
       </c>
       <c r="D20" t="n">
-        <v>1005.13463930188</v>
+        <v>626.3850265719329</v>
       </c>
       <c r="E20" t="n">
-        <v>619.3463867036357</v>
+        <v>626.3850265719329</v>
       </c>
       <c r="F20" t="n">
-        <v>208.3604819140282</v>
+        <v>626.3850265719329</v>
       </c>
       <c r="G20" t="n">
         <v>208.3604819140282</v>
@@ -5752,16 +5752,16 @@
         <v>52.55295983039683</v>
       </c>
       <c r="J20" t="n">
-        <v>163.2684600773918</v>
+        <v>163.2684600773914</v>
       </c>
       <c r="K20" t="n">
-        <v>449.9470991626236</v>
+        <v>449.9470991626233</v>
       </c>
       <c r="L20" t="n">
-        <v>857.873928349396</v>
+        <v>857.8739283493954</v>
       </c>
       <c r="M20" t="n">
-        <v>1328.37767037793</v>
+        <v>1328.377670377929</v>
       </c>
       <c r="N20" t="n">
         <v>1791.86265730319</v>
@@ -5782,22 +5782,22 @@
         <v>2391.242537400979</v>
       </c>
       <c r="T20" t="n">
-        <v>2391.242537400979</v>
+        <v>2172.341996098751</v>
       </c>
       <c r="U20" t="n">
-        <v>2391.242537400979</v>
+        <v>2172.341996098751</v>
       </c>
       <c r="V20" t="n">
-        <v>2060.179650057408</v>
+        <v>2172.341996098751</v>
       </c>
       <c r="W20" t="n">
-        <v>1750.000177972752</v>
+        <v>1819.573340828637</v>
       </c>
       <c r="X20" t="n">
-        <v>1750.000177972752</v>
+        <v>1819.573340828637</v>
       </c>
       <c r="Y20" t="n">
-        <v>1750.000177972752</v>
+        <v>1429.434008852825</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>925.411655558784</v>
+        <v>988.5731653441875</v>
       </c>
       <c r="C21" t="n">
-        <v>750.958626277657</v>
+        <v>814.1201360630605</v>
       </c>
       <c r="D21" t="n">
-        <v>602.0242166164057</v>
+        <v>665.1857264018092</v>
       </c>
       <c r="E21" t="n">
-        <v>442.7867616109502</v>
+        <v>505.9482713963537</v>
       </c>
       <c r="F21" t="n">
-        <v>296.2522036378352</v>
+        <v>359.4137134232386</v>
       </c>
       <c r="G21" t="n">
-        <v>158.3095936616604</v>
+        <v>221.4711034470639</v>
       </c>
       <c r="H21" t="n">
-        <v>52.55295983039683</v>
+        <v>115.7144696158003</v>
       </c>
       <c r="I21" t="n">
         <v>52.55295983039683</v>
@@ -5834,49 +5834,49 @@
         <v>124.8009736173955</v>
       </c>
       <c r="K21" t="n">
-        <v>237.6999257557351</v>
+        <v>374.9051797885135</v>
       </c>
       <c r="L21" t="n">
-        <v>635.4002920156956</v>
+        <v>772.605546048474</v>
       </c>
       <c r="M21" t="n">
-        <v>1151.477082766959</v>
+        <v>1288.682336799737</v>
       </c>
       <c r="N21" t="n">
-        <v>1696.919903922447</v>
+        <v>1834.125157955225</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.477846124048</v>
+        <v>2266.683100156827</v>
       </c>
       <c r="P21" t="n">
-        <v>2459.640662045247</v>
+        <v>2596.845916078025</v>
       </c>
       <c r="Q21" t="n">
         <v>2627.647991519842</v>
       </c>
       <c r="R21" t="n">
-        <v>2584.58614021077</v>
+        <v>2575.416961133099</v>
       </c>
       <c r="S21" t="n">
-        <v>2425.809551773383</v>
+        <v>2416.640372695712</v>
       </c>
       <c r="T21" t="n">
-        <v>2226.800018493867</v>
+        <v>2289.961528279271</v>
       </c>
       <c r="U21" t="n">
-        <v>1998.628256509283</v>
+        <v>2061.789766294687</v>
       </c>
       <c r="V21" t="n">
-        <v>1763.47614827754</v>
+        <v>1826.637658062944</v>
       </c>
       <c r="W21" t="n">
-        <v>1509.238791549339</v>
+        <v>1572.400301334742</v>
       </c>
       <c r="X21" t="n">
-        <v>1301.387291343806</v>
+        <v>1364.548801129209</v>
       </c>
       <c r="Y21" t="n">
-        <v>1093.626992578852</v>
+        <v>1156.788502364255</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.55295983039683</v>
+        <v>125.7989248116467</v>
       </c>
       <c r="C22" t="n">
         <v>52.55295983039683</v>
@@ -5934,28 +5934,28 @@
         <v>704.3911912483011</v>
       </c>
       <c r="R22" t="n">
-        <v>555.0195286193832</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="S22" t="n">
-        <v>340.2563111009171</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="T22" t="n">
-        <v>307.2374480362837</v>
+        <v>704.3911912483011</v>
       </c>
       <c r="U22" t="n">
-        <v>307.2374480362837</v>
+        <v>415.2160948486073</v>
       </c>
       <c r="V22" t="n">
-        <v>52.55295983039683</v>
+        <v>415.2160948486073</v>
       </c>
       <c r="W22" t="n">
-        <v>52.55295983039683</v>
+        <v>125.7989248116467</v>
       </c>
       <c r="X22" t="n">
-        <v>52.55295983039683</v>
+        <v>125.7989248116467</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.55295983039683</v>
+        <v>125.7989248116467</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2092.422847177208</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C23" t="n">
-        <v>1723.460330236796</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="D23" t="n">
-        <v>1365.194631630045</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="E23" t="n">
-        <v>979.4063790318012</v>
+        <v>949.7969936745658</v>
       </c>
       <c r="F23" t="n">
-        <v>568.4204742421937</v>
+        <v>538.8110888849583</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>120.8472807831452</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>120.8472807831452</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W23" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X23" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="Y23" t="n">
-        <v>2092.422847177208</v>
+        <v>1722.185086336932</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6089,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>952.5674858910851</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C26" t="n">
-        <v>952.5674858910851</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D26" t="n">
-        <v>952.5674858910851</v>
+        <v>1006.477909722111</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>620.6896571238672</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>620.6896571238672</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2396.464626829972</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>2065.401739486401</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>1712.633084216287</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>1339.167325955207</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y26" t="n">
-        <v>1339.167325955207</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6329,19 +6329,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2476.356511874692</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1679.795701438247</v>
+        <v>978.1437682647406</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.833184497836</v>
+        <v>978.1437682647406</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>978.1437682647406</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
         <v>534.603677789272</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.534873478181</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2456.534873478181</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X29" t="n">
-        <v>2456.534873478181</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y29" t="n">
-        <v>2066.395541502369</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>325.6879402326646</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D31" t="n">
-        <v>325.6879402326646</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E31" t="n">
-        <v>325.6879402326646</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F31" t="n">
-        <v>325.6879402326646</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G31" t="n">
-        <v>156.688139970997</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H31" t="n">
-        <v>156.688139970997</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036446</v>
@@ -6666,7 +6666,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2107.607341885688</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>2107.607341885688</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2481.073100146768</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2481.073100146768</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V32" t="n">
-        <v>2481.073100146768</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W32" t="n">
-        <v>2481.073100146768</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X32" t="n">
-        <v>2107.607341885688</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y32" t="n">
-        <v>2107.607341885688</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6794,10 +6794,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,16 +6806,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2305.297090124192</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.988902792793</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1749.341643278937</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C35" t="n">
-        <v>1749.341643278937</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2122.807401540017</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>2122.807401540017</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>2122.807401540017</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X35" t="n">
-        <v>1749.341643278937</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1749.341643278937</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1134.473993239633</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C38" t="n">
-        <v>1134.473993239633</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D38" t="n">
-        <v>1134.473993239633</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>1134.473993239633</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>723.4880884500253</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
@@ -7186,13 +7186,13 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
         <v>2697.149091018222</v>
@@ -7207,19 +7207,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>1894.539591564834</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>1521.073833303755</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y38" t="n">
-        <v>1521.073833303755</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7256,10 +7256,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417901</v>
@@ -7277,25 +7277,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7359,13 +7359,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>343.1165921657965</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V40" t="n">
         <v>53.94298182036445</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1567.641263708175</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="C41" t="n">
-        <v>1198.678746767763</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="D41" t="n">
-        <v>840.413048161013</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="E41" t="n">
-        <v>454.6247955627687</v>
+        <v>1152.943593469319</v>
       </c>
       <c r="F41" t="n">
-        <v>454.6247955627687</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L41" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748109</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.380435748109</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y41" t="n">
-        <v>1954.241103772297</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
         <v>1313.210296315296</v>
@@ -7511,22 +7511,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,7 +7578,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
         <v>529.6040388502502</v>
@@ -7587,34 +7587,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587813</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>138.385715127383</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U43" t="n">
-        <v>138.385715127383</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V43" t="n">
-        <v>138.385715127383</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>138.385715127383</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.385715127383</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C44" t="n">
-        <v>1546.94416071721</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D44" t="n">
-        <v>1188.678462110459</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E44" t="n">
-        <v>802.8902095122148</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F44" t="n">
-        <v>802.8902095122148</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>384.9264014104017</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1157.367208492925</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
         <v>1313.210296315296</v>
@@ -7742,28 +7742,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7772,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>2567.064746875</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669113</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>149.0021003118941</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>217.2853909287126</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>123.047446830095</v>
+        <v>274.9430030574977</v>
       </c>
       <c r="N15" t="n">
-        <v>270.015839604924</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>53.11324363636976</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>198.8518630269425</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.48612204617402</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>125.8740713229034</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>71.48612204617356</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,13 +10904,13 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>116.0172193266289</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22789,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>271.7190738256823</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22801,10 +22801,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>141.5149343455225</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23023,19 +23023,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>96.14153961947346</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>153.8955002308822</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23226,13 +23226,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23275,10 +23275,10 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>102.8347465338906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
@@ -23317,16 +23317,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>290.3254417274981</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.0814249536981</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>71.02179834801788</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23357,7 +23357,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19.18791615926975</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23442,7 +23442,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>80.19643759900795</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715794</v>
       </c>
       <c r="U13" t="n">
         <v>286.3155846423218</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H14" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
         <v>205.0481221176458</v>
@@ -23545,13 +23545,13 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>160.2306051137877</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.999281387019</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23594,7 +23594,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
-        <v>81.33010275904617</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>64.33484046272963</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>80.19643759900795</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715794</v>
       </c>
       <c r="U16" t="n">
         <v>286.3155846423218</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>366.2318274872155</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.25549283948421</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>175.7859067381893</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7115358892058</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2289778435317</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.4837942267684</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>19.89866189156852</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.52989468754939</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.70872008287461</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>9.077487286894126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>86.09319322181128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>167.3367741439016</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4106934180136</v>
+        <v>49.75148597470739</v>
       </c>
       <c r="I19" t="n">
         <v>135.7767399294862</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>31.38127751273461</v>
       </c>
       <c r="R19" t="n">
         <v>147.8779460026287</v>
@@ -23943,16 +23943,16 @@
         <v>212.6155853432815</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U19" t="n">
         <v>286.2833454356968</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>307.671282597088</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8442992113257</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>324.5385708368794</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.7115358892058</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2289778435317</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>42.16329135360354</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>62.52989468754939</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.077487286894083</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>71.60738197444378</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>94.7333157671905</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,22 +24174,22 @@
         <v>31.38127751273461</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>147.8779460026287</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6155853432815</v>
       </c>
       <c r="T22" t="n">
-        <v>192.4616745320959</v>
+        <v>225.1503489660829</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2833454356968</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>380.3055415324025</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.69606027170836</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>176.6277342346845</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.024950536732803</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>349.7017262432593</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>144.0225856803052</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592653</v>
       </c>
       <c r="I31" t="n">
-        <v>78.44787441174904</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>2.533089394917454</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>16.01590906762181</v>
       </c>
     </row>
     <row r="33">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>110.5198236568347</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>63.07482633070583</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>127.9683306663072</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>46.83478528866308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25365,22 +25365,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>226.7886034666492</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>186.9024271435003</v>
       </c>
     </row>
     <row r="39">
@@ -25599,7 +25599,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>56.5723829943982</v>
       </c>
       <c r="G41" t="n">
-        <v>341.031947180172</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>96.56727500692685</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067484</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>148.1805036150815</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.519590009504839</v>
       </c>
     </row>
     <row r="45">
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
@@ -26076,7 +26076,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.25160475629352</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>482163.6750662234</v>
+        <v>482163.6750662233</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511495.1365343873</v>
+        <v>511495.1365343872</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>511495.1365343872</v>
+        <v>511495.1365343871</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797493.2483983855</v>
+        <v>797493.2483983856</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810543.9642182667</v>
+        <v>810543.9642182668</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182665</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810543.9642182668</v>
+        <v>810543.9642182667</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="C2" t="n">
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398033</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
         <v>150604.5581398033</v>
@@ -26337,7 +26337,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26352,10 +26352,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923567</v>
+        <v>38628.88112923561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15879.41974556753</v>
+        <v>15879.41974556756</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213634</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91629.18802282485</v>
+        <v>91629.18802282482</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
         <v>42017.42535589615</v>
@@ -26432,13 +26432,13 @@
         <v>42169.81622231289</v>
       </c>
       <c r="G4" t="n">
-        <v>44687.72996823888</v>
+        <v>44687.72996823887</v>
       </c>
       <c r="H4" t="n">
-        <v>44687.72996823888</v>
+        <v>44687.72996823887</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
         <v>44802.6561755686</v>
@@ -26447,19 +26447,19 @@
         <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="O4" t="n">
         <v>44802.6561755686</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>44802.6561755686</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44802.6561755686</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44802.65617556861</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44802.65617556861</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="G5" t="n">
-        <v>47848.99578308387</v>
+        <v>47848.99578308386</v>
       </c>
       <c r="H5" t="n">
         <v>47848.99578308386</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29831.55399957309</v>
+        <v>-42049.56461961343</v>
       </c>
       <c r="C6" t="n">
-        <v>50937.87753197467</v>
+        <v>38719.86691193424</v>
       </c>
       <c r="D6" t="n">
-        <v>50937.8775319747</v>
+        <v>38719.86691193432</v>
       </c>
       <c r="E6" t="n">
-        <v>52252.08127147456</v>
+        <v>40585.12868015007</v>
       </c>
       <c r="F6" t="n">
-        <v>90880.96240071024</v>
+        <v>79214.00980938571</v>
       </c>
       <c r="G6" t="n">
-        <v>-210103.1231092862</v>
+        <v>-216415.8612416761</v>
       </c>
       <c r="H6" t="n">
-        <v>149089.4781903691</v>
+        <v>142776.7400579793</v>
       </c>
       <c r="I6" t="n">
-        <v>135866.1645288483</v>
+        <v>129797.7507830291</v>
       </c>
       <c r="J6" t="n">
-        <v>88685.64167530961</v>
+        <v>82617.22792949036</v>
       </c>
       <c r="K6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="L6" t="n">
-        <v>151745.5842744158</v>
+        <v>145677.1705285965</v>
       </c>
       <c r="M6" t="n">
-        <v>142988.0012792022</v>
+        <v>136919.587533383</v>
       </c>
       <c r="N6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
       <c r="O6" t="n">
-        <v>60116.39625159104</v>
+        <v>54047.98250577183</v>
       </c>
       <c r="P6" t="n">
-        <v>151745.5842744159</v>
+        <v>145677.1705285966</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="G3" t="n">
         <v>362.7865280725813</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G4" t="n">
-        <v>656.9119978799605</v>
+        <v>656.9119978799604</v>
       </c>
       <c r="H4" t="n">
         <v>656.9119978799604</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.37527487459522</v>
+        <v>17.37527487459533</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.7554841776051</v>
+        <v>380.755484177605</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H12" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J13" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H15" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J16" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34137,34 +34137,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,40 +34201,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
@@ -34243,7 +34243,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34374,34 +34374,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,40 +34438,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
@@ -34480,7 +34480,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,25 +34541,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35427,10 +35427,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>23.32460243089389</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>94.23794409861753</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M13" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35664,10 +35664,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L15" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>151.8955562274026</v>
       </c>
       <c r="N15" t="n">
-        <v>158.2658797799248</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199196</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M16" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>72.97779170403908</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>252.6305112839576</v>
+        <v>187.0171372983214</v>
       </c>
       <c r="L18" t="n">
         <v>401.7175416767278</v>
@@ -35983,7 +35983,7 @@
         <v>333.497793859796</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.11320751698653</v>
+        <v>169.7043732066616</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>72.97779170403908</v>
       </c>
       <c r="K21" t="n">
-        <v>114.0393455942824</v>
+        <v>252.6305112839576</v>
       </c>
       <c r="L21" t="n">
         <v>401.7175416767278</v>
@@ -36220,7 +36220,7 @@
         <v>333.497793859796</v>
       </c>
       <c r="Q21" t="n">
-        <v>169.7043732066616</v>
+        <v>31.11320751698608</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37393,10 +37393,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338903</v>
@@ -37782,25 +37782,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338903</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
